--- a/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message-template.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-message-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/superlee/Documents/idea_work/framework-group/hzero-message/src/main/resources/script/db/init-data/hzero_message/hzero_message/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\c7n-hzero\hzero-message\src\main\resources\script\db\init-data\hzero_message\hzero_message\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1965BCF-0711-1B4C-96AE-736D7404BAD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB07248-4C5C-4050-983F-71BCC38AA1FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="597" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -23,14 +23,12 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -8501,9 +8499,6 @@
     <t>#type_code</t>
   </si>
   <si>
-    <t>template_code</t>
-  </si>
-  <si>
     <t>server_id</t>
   </si>
   <si>
@@ -9331,6 +9326,10 @@
   </si>
   <si>
     <t>&lt;p&gt;经办人${assigneeName}的问题&lt;a href=${url} target=_blank&gt;${summary}&lt;/a&gt;已由${operatorName}变更为已解决状态&lt;/p&gt;</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>#template_code</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -9927,6 +9926,10 @@
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -9941,10 +9944,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -10294,31 +10293,31 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="38.5703125" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.58203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.1640625" customWidth="1"/>
+    <col min="4" max="4" width="35.25" style="3" customWidth="1"/>
+    <col min="5" max="5" width="38.58203125" customWidth="1"/>
+    <col min="6" max="6" width="23.4140625" customWidth="1"/>
+    <col min="7" max="7" width="21.58203125" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5703125" customWidth="1"/>
+    <col min="9" max="9" width="24.58203125" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.140625" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" customWidth="1"/>
-    <col min="14" max="1025" width="10.28515625" customWidth="1"/>
+    <col min="11" max="11" width="19.1640625" customWidth="1"/>
+    <col min="12" max="12" width="18.58203125" customWidth="1"/>
+    <col min="13" max="13" width="13.1640625" customWidth="1"/>
+    <col min="14" max="1025" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -10327,21 +10326,21 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="68"/>
-      <c r="E3" s="70" t="s">
+      <c r="D3" s="70"/>
+      <c r="E3" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-    </row>
-    <row r="4" spans="1:8" ht="19">
-      <c r="C4" s="71" t="s">
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="C4" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="71"/>
+      <c r="D4" s="73"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
@@ -10378,7 +10377,7 @@
       </c>
       <c r="E8" s="15"/>
     </row>
-    <row r="9" spans="1:8" ht="57">
+    <row r="9" spans="1:8" ht="52.2">
       <c r="C9" s="16" t="s">
         <v>13</v>
       </c>
@@ -10392,7 +10391,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="57">
+    <row r="10" spans="1:8" ht="52.2">
       <c r="C10" s="19" t="s">
         <v>17</v>
       </c>
@@ -10403,7 +10402,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="76">
+    <row r="11" spans="1:8" ht="69.599999999999994">
       <c r="C11" s="13" t="s">
         <v>20</v>
       </c>
@@ -10414,7 +10413,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="19">
+    <row r="12" spans="1:8">
       <c r="C12" s="13" t="s">
         <v>23</v>
       </c>
@@ -10435,7 +10434,7 @@
       <c r="D14" s="14"/>
       <c r="E14" s="15"/>
     </row>
-    <row r="15" spans="1:8" ht="38">
+    <row r="15" spans="1:8" ht="34.799999999999997">
       <c r="C15" s="21" t="s">
         <v>26</v>
       </c>
@@ -10452,11 +10451,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="72" t="s">
+      <c r="C19" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="72"/>
-      <c r="E19" s="72"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
     </row>
     <row r="20" spans="3:5">
       <c r="C20" s="24" t="s">
@@ -10494,21 +10493,21 @@
       <c r="C25" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="68" t="s">
+      <c r="D25" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="68"/>
+      <c r="E25" s="70"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="68" t="s">
+      <c r="D26" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="68"/>
-    </row>
-    <row r="27" spans="3:5" ht="57">
+      <c r="E26" s="70"/>
+    </row>
+    <row r="27" spans="3:5" ht="52.2">
       <c r="C27" s="26" t="s">
         <v>43</v>
       </c>
@@ -10533,19 +10532,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P828"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C83" workbookViewId="0">
+    <sheetView topLeftCell="C67" workbookViewId="0">
       <selection activeCell="H101" sqref="H101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="5" max="5" width="31.7109375" customWidth="1"/>
-    <col min="6" max="6" width="56.140625" customWidth="1"/>
+    <col min="5" max="5" width="31.75" customWidth="1"/>
+    <col min="6" max="6" width="56.1640625" customWidth="1"/>
     <col min="7" max="7" width="36" customWidth="1"/>
-    <col min="8" max="8" width="32.85546875" customWidth="1"/>
-    <col min="9" max="9" width="55.7109375" customWidth="1"/>
-    <col min="10" max="10" width="24.85546875" customWidth="1"/>
-    <col min="11" max="11" width="33.140625" customWidth="1"/>
+    <col min="8" max="8" width="32.83203125" customWidth="1"/>
+    <col min="9" max="9" width="55.75" customWidth="1"/>
+    <col min="10" max="10" width="24.83203125" customWidth="1"/>
+    <col min="11" max="11" width="33.1640625" customWidth="1"/>
     <col min="12" max="12" width="23" customWidth="1"/>
     <col min="13" max="13" width="25" customWidth="1"/>
   </cols>
@@ -12918,12 +12917,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="88" spans="5:16" ht="23" customHeight="1">
+    <row r="88" spans="5:16" ht="22.95" customHeight="1">
       <c r="E88" t="s">
         <v>374</v>
       </c>
-      <c r="F88" s="73" t="s">
-        <v>998</v>
+      <c r="F88" s="68" t="s">
+        <v>997</v>
       </c>
       <c r="G88" t="s">
         <v>375</v>
@@ -12931,8 +12930,8 @@
       <c r="H88" t="s">
         <v>375</v>
       </c>
-      <c r="I88" s="74" t="s">
-        <v>999</v>
+      <c r="I88" s="69" t="s">
+        <v>998</v>
       </c>
       <c r="N88" t="s">
         <v>72</v>
@@ -12957,8 +12956,8 @@
       <c r="H89" t="s">
         <v>372</v>
       </c>
-      <c r="I89" s="73" t="s">
-        <v>1000</v>
+      <c r="I89" s="68" t="s">
+        <v>999</v>
       </c>
       <c r="N89" t="s">
         <v>72</v>
@@ -13032,8 +13031,8 @@
       <c r="E92" t="s">
         <v>386</v>
       </c>
-      <c r="F92" s="73" t="s">
-        <v>997</v>
+      <c r="F92" s="68" t="s">
+        <v>996</v>
       </c>
       <c r="G92" t="s">
         <v>387</v>
@@ -13151,8 +13150,8 @@
       <c r="H96" t="s">
         <v>399</v>
       </c>
-      <c r="I96" s="74" t="s">
-        <v>1001</v>
+      <c r="I96" s="69" t="s">
+        <v>1000</v>
       </c>
       <c r="N96" t="s">
         <v>72</v>
@@ -13177,8 +13176,8 @@
       <c r="H97" t="s">
         <v>395</v>
       </c>
-      <c r="I97" s="73" t="s">
-        <v>1002</v>
+      <c r="I97" s="68" t="s">
+        <v>1001</v>
       </c>
       <c r="N97" t="s">
         <v>72</v>
@@ -22819,9 +22818,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K189"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="H94" sqref="H94"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.399999999999999"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="34" t="s">
@@ -24259,17 +24260,17 @@
       <c r="G89" s="57" t="s">
         <v>890</v>
       </c>
-      <c r="H89" t="s">
+      <c r="H89" s="68" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I89" s="58" t="s">
         <v>891</v>
       </c>
-      <c r="I89" s="58" t="s">
+      <c r="J89" t="s">
         <v>892</v>
       </c>
-      <c r="J89" t="s">
+      <c r="K89" t="s">
         <v>893</v>
-      </c>
-      <c r="K89" t="s">
-        <v>894</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -24280,7 +24281,7 @@
         <v>51</v>
       </c>
       <c r="C91" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D91" s="59" t="s">
         <v>887</v>
@@ -24294,35 +24295,35 @@
       <c r="G91" s="62" t="s">
         <v>890</v>
       </c>
-      <c r="H91" t="s">
+      <c r="H91" s="68" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I91" s="63" t="s">
         <v>891</v>
       </c>
-      <c r="I91" s="63" t="s">
+      <c r="J91" t="s">
         <v>892</v>
       </c>
-      <c r="J91" t="s">
+      <c r="K91" t="s">
         <v>893</v>
-      </c>
-      <c r="K91" t="s">
-        <v>894</v>
       </c>
     </row>
     <row r="92" spans="1:11">
       <c r="E92" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="F92" t="str">
         <f>发送配置!$E$86</f>
         <v>hmsg_template_server-86</v>
       </c>
       <c r="G92" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H92" t="s">
         <v>344</v>
       </c>
       <c r="K92" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -24333,7 +24334,7 @@
         <v>51</v>
       </c>
       <c r="C94" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D94" s="64" t="s">
         <v>887</v>
@@ -24347,29 +24348,29 @@
       <c r="G94" s="67" t="s">
         <v>890</v>
       </c>
-      <c r="H94" t="s">
+      <c r="H94" s="68" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I94" t="s">
         <v>891</v>
       </c>
-      <c r="I94" t="s">
+      <c r="J94" t="s">
         <v>892</v>
       </c>
-      <c r="J94" t="s">
+      <c r="K94" t="s">
         <v>893</v>
-      </c>
-      <c r="K94" t="s">
-        <v>894</v>
       </c>
     </row>
     <row r="95" spans="1:11">
       <c r="E95" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="F95" t="str">
         <f>发送配置!$E$9</f>
         <v>hmsg_template_server-9</v>
       </c>
       <c r="G95" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H95" t="s">
         <v>93</v>
@@ -24377,14 +24378,14 @@
     </row>
     <row r="96" spans="1:11">
       <c r="E96" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="F96" t="str">
         <f>发送配置!$E$10</f>
         <v>hmsg_template_server-10</v>
       </c>
       <c r="G96" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H96" t="s">
         <v>429</v>
@@ -24392,14 +24393,14 @@
     </row>
     <row r="97" spans="5:8">
       <c r="E97" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="F97" t="str">
         <f>发送配置!$E$11</f>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G97" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H97" t="s">
         <v>269</v>
@@ -24407,14 +24408,14 @@
     </row>
     <row r="98" spans="5:8">
       <c r="E98" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="F98" t="str">
         <f>发送配置!$E$11</f>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G98" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H98" t="s">
         <v>262</v>
@@ -24422,14 +24423,14 @@
     </row>
     <row r="99" spans="5:8">
       <c r="E99" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F99" t="str">
         <f>发送配置!$E$11</f>
         <v>hmsg_template_server-11</v>
       </c>
       <c r="G99" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H99" t="s">
         <v>271</v>
@@ -24437,14 +24438,14 @@
     </row>
     <row r="100" spans="5:8">
       <c r="E100" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="F100" t="str">
         <f>发送配置!$E$12</f>
         <v>hmsg_template_server-12</v>
       </c>
       <c r="G100" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H100" t="s">
         <v>232</v>
@@ -24452,14 +24453,14 @@
     </row>
     <row r="101" spans="5:8">
       <c r="E101" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="F101" t="str">
         <f>发送配置!$E$12</f>
         <v>hmsg_template_server-12</v>
       </c>
       <c r="G101" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H101" t="s">
         <v>224</v>
@@ -24467,14 +24468,14 @@
     </row>
     <row r="102" spans="5:8">
       <c r="E102" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F102" t="str">
         <f>发送配置!$E$12</f>
         <v>hmsg_template_server-12</v>
       </c>
       <c r="G102" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H102" t="s">
         <v>234</v>
@@ -24482,14 +24483,14 @@
     </row>
     <row r="103" spans="5:8">
       <c r="E103" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F103" t="str">
         <f>发送配置!$E$13</f>
         <v>hmsg_template_server-13</v>
       </c>
       <c r="G103" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H103" t="s">
         <v>257</v>
@@ -24497,14 +24498,14 @@
     </row>
     <row r="104" spans="5:8">
       <c r="E104" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="F104" t="str">
         <f>发送配置!$E$13</f>
         <v>hmsg_template_server-13</v>
       </c>
       <c r="G104" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H104" t="s">
         <v>253</v>
@@ -24512,14 +24513,14 @@
     </row>
     <row r="105" spans="5:8">
       <c r="E105" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="F105" t="str">
         <f>发送配置!$E$13</f>
         <v>hmsg_template_server-13</v>
       </c>
       <c r="G105" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H105" t="s">
         <v>259</v>
@@ -24527,14 +24528,14 @@
     </row>
     <row r="106" spans="5:8">
       <c r="E106" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="F106" t="str">
         <f>发送配置!$E$14</f>
         <v>hmsg_template_server-14</v>
       </c>
       <c r="G106" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H106" t="s">
         <v>218</v>
@@ -24542,14 +24543,14 @@
     </row>
     <row r="107" spans="5:8">
       <c r="E107" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="F107" t="str">
         <f>发送配置!$E$14</f>
         <v>hmsg_template_server-14</v>
       </c>
       <c r="G107" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H107" t="s">
         <v>214</v>
@@ -24557,14 +24558,14 @@
     </row>
     <row r="108" spans="5:8">
       <c r="E108" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="F108" t="str">
         <f>发送配置!$E$14</f>
         <v>hmsg_template_server-14</v>
       </c>
       <c r="G108" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H108" t="s">
         <v>220</v>
@@ -24572,14 +24573,14 @@
     </row>
     <row r="109" spans="5:8">
       <c r="E109" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="F109" t="str">
         <f>发送配置!$E$15</f>
         <v>hmsg_template_server-15</v>
       </c>
       <c r="G109" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H109" t="s">
         <v>390</v>
@@ -24587,14 +24588,14 @@
     </row>
     <row r="110" spans="5:8">
       <c r="E110" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="F110" t="str">
         <f>发送配置!$E$15</f>
         <v>hmsg_template_server-15</v>
       </c>
       <c r="G110" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H110" t="s">
         <v>383</v>
@@ -24602,14 +24603,14 @@
     </row>
     <row r="111" spans="5:8">
       <c r="E111" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="F111" t="str">
         <f>发送配置!$E$15</f>
         <v>hmsg_template_server-15</v>
       </c>
       <c r="G111" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H111" t="s">
         <v>392</v>
@@ -24617,14 +24618,14 @@
     </row>
     <row r="112" spans="5:8">
       <c r="E112" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="F112" t="str">
         <f>发送配置!$E$16</f>
         <v>hmsg_template_server-16</v>
       </c>
       <c r="G112" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H112" t="s">
         <v>377</v>
@@ -24632,14 +24633,14 @@
     </row>
     <row r="113" spans="5:8">
       <c r="E113" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="F113" t="str">
         <f>发送配置!$E$16</f>
         <v>hmsg_template_server-16</v>
       </c>
       <c r="G113" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H113" t="s">
         <v>371</v>
@@ -24647,14 +24648,14 @@
     </row>
     <row r="114" spans="5:8">
       <c r="E114" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="F114" t="str">
         <f>发送配置!$E$16</f>
         <v>hmsg_template_server-16</v>
       </c>
       <c r="G114" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H114" t="s">
         <v>379</v>
@@ -24662,14 +24663,14 @@
     </row>
     <row r="115" spans="5:8">
       <c r="E115" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F115" t="str">
         <f>发送配置!$E$17</f>
         <v>hmsg_template_server-17</v>
       </c>
       <c r="G115" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H115" t="s">
         <v>401</v>
@@ -24677,14 +24678,14 @@
     </row>
     <row r="116" spans="5:8">
       <c r="E116" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F116" t="str">
         <f>发送配置!$E$17</f>
         <v>hmsg_template_server-17</v>
       </c>
       <c r="G116" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H116" t="s">
         <v>394</v>
@@ -24692,14 +24693,14 @@
     </row>
     <row r="117" spans="5:8">
       <c r="E117" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="F117" t="str">
         <f>发送配置!$E$17</f>
         <v>hmsg_template_server-17</v>
       </c>
       <c r="G117" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H117" t="s">
         <v>403</v>
@@ -24707,14 +24708,14 @@
     </row>
     <row r="118" spans="5:8">
       <c r="E118" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="F118" t="str">
         <f>发送配置!$E$18</f>
         <v>hmsg_template_server-18</v>
       </c>
       <c r="G118" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H118" t="s">
         <v>580</v>
@@ -24722,14 +24723,14 @@
     </row>
     <row r="119" spans="5:8">
       <c r="E119" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="F119" t="str">
         <f>发送配置!$E$20</f>
         <v>hmsg_template_server-20</v>
       </c>
       <c r="G119" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H119" t="s">
         <v>415</v>
@@ -24737,14 +24738,14 @@
     </row>
     <row r="120" spans="5:8">
       <c r="E120" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="F120" t="str">
         <f>发送配置!$E$21</f>
         <v>hmsg_template_server-21</v>
       </c>
       <c r="G120" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H120" t="s">
         <v>409</v>
@@ -24752,14 +24753,14 @@
     </row>
     <row r="121" spans="5:8">
       <c r="E121" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="F121" t="str">
         <f>发送配置!$E$21</f>
         <v>hmsg_template_server-21</v>
       </c>
       <c r="G121" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H121" t="s">
         <v>405</v>
@@ -24767,14 +24768,14 @@
     </row>
     <row r="122" spans="5:8">
       <c r="E122" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="F122" t="str">
         <f>发送配置!$E$21</f>
         <v>hmsg_template_server-21</v>
       </c>
       <c r="G122" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H122" t="s">
         <v>411</v>
@@ -24782,14 +24783,14 @@
     </row>
     <row r="123" spans="5:8">
       <c r="E123" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="F123" t="str">
         <f>发送配置!$E$22</f>
         <v>hmsg_template_server-22</v>
       </c>
       <c r="G123" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H123" t="s">
         <v>533</v>
@@ -24797,14 +24798,14 @@
     </row>
     <row r="124" spans="5:8">
       <c r="E124" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="F124" t="str">
         <f>发送配置!$E$23</f>
         <v>hmsg_template_server-23</v>
       </c>
       <c r="G124" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H124" t="s">
         <v>551</v>
@@ -24812,14 +24813,14 @@
     </row>
     <row r="125" spans="5:8">
       <c r="E125" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="F125" t="str">
         <f>发送配置!$E$28</f>
         <v>hmsg_template_server-28</v>
       </c>
       <c r="G125" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H125" t="s">
         <v>545</v>
@@ -24827,14 +24828,14 @@
     </row>
     <row r="126" spans="5:8">
       <c r="E126" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="F126" t="str">
         <f>发送配置!$E$29</f>
         <v>hmsg_template_server-29</v>
       </c>
       <c r="G126" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H126" t="s">
         <v>492</v>
@@ -24842,14 +24843,14 @@
     </row>
     <row r="127" spans="5:8">
       <c r="E127" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="F127" t="str">
         <f>发送配置!$E$29</f>
         <v>hmsg_template_server-29</v>
       </c>
       <c r="G127" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H127" t="s">
         <v>485</v>
@@ -24857,14 +24858,14 @@
     </row>
     <row r="128" spans="5:8">
       <c r="E128" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F128" t="str">
         <f>发送配置!$E$29</f>
         <v>hmsg_template_server-29</v>
       </c>
       <c r="G128" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H128" t="s">
         <v>494</v>
@@ -24872,14 +24873,14 @@
     </row>
     <row r="129" spans="5:8">
       <c r="E129" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="F129" t="str">
         <f>发送配置!$E$30</f>
         <v>hmsg_template_server-30</v>
       </c>
       <c r="G129" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H129" t="s">
         <v>456</v>
@@ -24887,14 +24888,14 @@
     </row>
     <row r="130" spans="5:8">
       <c r="E130" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F130" t="str">
         <f>发送配置!$E$30</f>
         <v>hmsg_template_server-30</v>
       </c>
       <c r="G130" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H130" t="s">
         <v>460</v>
@@ -24902,14 +24903,14 @@
     </row>
     <row r="131" spans="5:8">
       <c r="E131" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F131" t="str">
         <f>发送配置!$E$31</f>
         <v>hmsg_template_server-31</v>
       </c>
       <c r="G131" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H131" t="s">
         <v>467</v>
@@ -24917,14 +24918,14 @@
     </row>
     <row r="132" spans="5:8">
       <c r="E132" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F132" t="str">
         <f>发送配置!$E$31</f>
         <v>hmsg_template_server-31</v>
       </c>
       <c r="G132" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H132" t="s">
         <v>471</v>
@@ -24932,14 +24933,14 @@
     </row>
     <row r="133" spans="5:8">
       <c r="E133" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="F133" t="str">
         <f>发送配置!$E$32</f>
         <v>hmsg_template_server-32</v>
       </c>
       <c r="G133" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H133" t="s">
         <v>480</v>
@@ -24947,14 +24948,14 @@
     </row>
     <row r="134" spans="5:8">
       <c r="E134" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F134" t="str">
         <f>发送配置!$E$32</f>
         <v>hmsg_template_server-32</v>
       </c>
       <c r="G134" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H134" t="s">
         <v>473</v>
@@ -24962,14 +24963,14 @@
     </row>
     <row r="135" spans="5:8">
       <c r="E135" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F135" t="str">
         <f>发送配置!$E$32</f>
         <v>hmsg_template_server-32</v>
       </c>
       <c r="G135" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H135" t="s">
         <v>482</v>
@@ -24977,14 +24978,14 @@
     </row>
     <row r="136" spans="5:8">
       <c r="E136" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="F136" t="str">
         <f>发送配置!$E$33</f>
         <v>hmsg_template_server-33</v>
       </c>
       <c r="G136" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H136" t="s">
         <v>446</v>
@@ -24992,14 +24993,14 @@
     </row>
     <row r="137" spans="5:8">
       <c r="E137" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="F137" t="str">
         <f>发送配置!$E$33</f>
         <v>hmsg_template_server-33</v>
       </c>
       <c r="G137" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H137" t="s">
         <v>439</v>
@@ -25007,14 +25008,14 @@
     </row>
     <row r="138" spans="5:8">
       <c r="E138" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="F138" t="str">
         <f>发送配置!$E$33</f>
         <v>hmsg_template_server-33</v>
       </c>
       <c r="G138" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H138" t="s">
         <v>448</v>
@@ -25022,14 +25023,14 @@
     </row>
     <row r="139" spans="5:8">
       <c r="E139" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F139" t="str">
         <f>发送配置!$E$34</f>
         <v>hmsg_template_server-34</v>
       </c>
       <c r="G139" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H139" t="s">
         <v>435</v>
@@ -25037,14 +25038,14 @@
     </row>
     <row r="140" spans="5:8">
       <c r="E140" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="F140" t="str">
         <f>发送配置!$E$37</f>
         <v>hmsg_template_server-37</v>
       </c>
       <c r="G140" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H140" t="s">
         <v>117</v>
@@ -25052,14 +25053,14 @@
     </row>
     <row r="141" spans="5:8">
       <c r="E141" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="F141" t="str">
         <f>发送配置!$E$38</f>
         <v>hmsg_template_server-38</v>
       </c>
       <c r="G141" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H141" t="s">
         <v>245</v>
@@ -25067,14 +25068,14 @@
     </row>
     <row r="142" spans="5:8">
       <c r="E142" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="F142" t="str">
         <f>发送配置!$E$38</f>
         <v>hmsg_template_server-38</v>
       </c>
       <c r="G142" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H142" t="s">
         <v>238</v>
@@ -25082,14 +25083,14 @@
     </row>
     <row r="143" spans="5:8">
       <c r="E143" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F143" t="str">
         <f>发送配置!$E$38</f>
         <v>hmsg_template_server-38</v>
       </c>
       <c r="G143" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H143" t="s">
         <v>247</v>
@@ -25097,14 +25098,14 @@
     </row>
     <row r="144" spans="5:8">
       <c r="E144" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="F144" t="str">
         <f>发送配置!$E$39</f>
         <v>hmsg_template_server-39</v>
       </c>
       <c r="G144" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H144" t="s">
         <v>426</v>
@@ -25112,14 +25113,14 @@
     </row>
     <row r="145" spans="5:8">
       <c r="E145" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F145" t="str">
         <f>发送配置!$E$40</f>
         <v>hmsg_template_server-40</v>
       </c>
       <c r="G145" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H145" t="s">
         <v>364</v>
@@ -25127,14 +25128,14 @@
     </row>
     <row r="146" spans="5:8">
       <c r="E146" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="F146" t="str">
         <f>发送配置!$E$41</f>
         <v>hmsg_template_server-41</v>
       </c>
       <c r="G146" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H146" t="s">
         <v>420</v>
@@ -25142,14 +25143,14 @@
     </row>
     <row r="147" spans="5:8">
       <c r="E147" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="F147" t="str">
         <f>发送配置!$E$42</f>
         <v>hmsg_template_server-42</v>
       </c>
       <c r="G147" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H147" t="s">
         <v>285</v>
@@ -25157,14 +25158,14 @@
     </row>
     <row r="148" spans="5:8">
       <c r="E148" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="F148" t="str">
         <f>发送配置!$E$42</f>
         <v>hmsg_template_server-42</v>
       </c>
       <c r="G148" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H148" t="s">
         <v>289</v>
@@ -25172,14 +25173,14 @@
     </row>
     <row r="149" spans="5:8">
       <c r="E149" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="F149" t="str">
         <f>发送配置!$E$43</f>
         <v>hmsg_template_server-43</v>
       </c>
       <c r="G149" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H149" t="s">
         <v>124</v>
@@ -25187,14 +25188,14 @@
     </row>
     <row r="150" spans="5:8">
       <c r="E150" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="F150" t="str">
         <f>发送配置!$E$44</f>
         <v>hmsg_template_server-44</v>
       </c>
       <c r="G150" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H150" t="s">
         <v>358</v>
@@ -25202,14 +25203,14 @@
     </row>
     <row r="151" spans="5:8">
       <c r="E151" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="F151" t="str">
         <f>发送配置!$E$45</f>
         <v>hmsg_template_server-45</v>
       </c>
       <c r="G151" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H151" t="s">
         <v>130</v>
@@ -25217,14 +25218,14 @@
     </row>
     <row r="152" spans="5:8">
       <c r="E152" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="F152" t="str">
         <f>发送配置!$E$46</f>
         <v>hmsg_template_server-46</v>
       </c>
       <c r="G152" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H152" t="s">
         <v>560</v>
@@ -25232,14 +25233,14 @@
     </row>
     <row r="153" spans="5:8">
       <c r="E153" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="F153" t="str">
         <f>发送配置!$E$47</f>
         <v>hmsg_template_server-47</v>
       </c>
       <c r="G153" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H153" t="s">
         <v>104</v>
@@ -25247,14 +25248,14 @@
     </row>
     <row r="154" spans="5:8">
       <c r="E154" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F154" t="str">
         <f>发送配置!$E$47</f>
         <v>hmsg_template_server-47</v>
       </c>
       <c r="G154" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H154" t="s">
         <v>108</v>
@@ -25262,14 +25263,14 @@
     </row>
     <row r="155" spans="5:8">
       <c r="E155" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F155" t="str">
         <f>发送配置!$E$48</f>
         <v>hmsg_template_server-48</v>
       </c>
       <c r="G155" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H155" t="s">
         <v>205</v>
@@ -25277,14 +25278,14 @@
     </row>
     <row r="156" spans="5:8">
       <c r="E156" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="F156" t="str">
         <f>发送配置!$E$48</f>
         <v>hmsg_template_server-48</v>
       </c>
       <c r="G156" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H156" t="s">
         <v>198</v>
@@ -25292,14 +25293,14 @@
     </row>
     <row r="157" spans="5:8">
       <c r="E157" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="F157" t="str">
         <f>发送配置!$E$48</f>
         <v>hmsg_template_server-48</v>
       </c>
       <c r="G157" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H157" t="s">
         <v>207</v>
@@ -25307,14 +25308,14 @@
     </row>
     <row r="158" spans="5:8">
       <c r="E158" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="F158" t="str">
         <f>发送配置!$E$49</f>
         <v>hmsg_template_server-49</v>
       </c>
       <c r="G158" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H158" t="s">
         <v>278</v>
@@ -25322,14 +25323,14 @@
     </row>
     <row r="159" spans="5:8">
       <c r="E159" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="F159" t="str">
         <f>发送配置!$E$50</f>
         <v>hmsg_template_server-50</v>
       </c>
       <c r="G159" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H159" t="s">
         <v>80</v>
@@ -25337,14 +25338,14 @@
     </row>
     <row r="160" spans="5:8">
       <c r="E160" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="F160" t="str">
         <f>发送配置!$E$50</f>
         <v>hmsg_template_server-50</v>
       </c>
       <c r="G160" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H160" t="s">
         <v>83</v>
@@ -25352,14 +25353,14 @@
     </row>
     <row r="161" spans="5:8">
       <c r="E161" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="F161" t="str">
         <f>发送配置!$E$51</f>
         <v>hmsg_template_server-51</v>
       </c>
       <c r="G161" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H161" t="s">
         <v>573</v>
@@ -25367,14 +25368,14 @@
     </row>
     <row r="162" spans="5:8">
       <c r="E162" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="F162" t="str">
         <f>发送配置!$E$52</f>
         <v>hmsg_template_server-52</v>
       </c>
       <c r="G162" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H162" t="s">
         <v>502</v>
@@ -25382,14 +25383,14 @@
     </row>
     <row r="163" spans="5:8">
       <c r="E163" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="F163" t="str">
         <f>发送配置!$E$52</f>
         <v>hmsg_template_server-52</v>
       </c>
       <c r="G163" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H163" t="s">
         <v>505</v>
@@ -25397,14 +25398,14 @@
     </row>
     <row r="164" spans="5:8">
       <c r="E164" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="F164" t="str">
         <f>发送配置!$E$53</f>
         <v>hmsg_template_server-53</v>
       </c>
       <c r="G164" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H164" t="s">
         <v>566</v>
@@ -25412,14 +25413,14 @@
     </row>
     <row r="165" spans="5:8">
       <c r="E165" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="F165" t="str">
         <f>发送配置!$E$54</f>
         <v>hmsg_template_server-54</v>
       </c>
       <c r="G165" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H165" t="s">
         <v>178</v>
@@ -25427,14 +25428,14 @@
     </row>
     <row r="166" spans="5:8">
       <c r="E166" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="F166" t="str">
         <f>发送配置!$E$54</f>
         <v>hmsg_template_server-54</v>
       </c>
       <c r="G166" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H166" t="s">
         <v>182</v>
@@ -25442,14 +25443,14 @@
     </row>
     <row r="167" spans="5:8">
       <c r="E167" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="F167" t="str">
         <f>发送配置!$E$55</f>
         <v>hmsg_template_server-55</v>
       </c>
       <c r="G167" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H167" t="s">
         <v>172</v>
@@ -25457,14 +25458,14 @@
     </row>
     <row r="168" spans="5:8">
       <c r="E168" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="F168" t="str">
         <f>发送配置!$E$56</f>
         <v>hmsg_template_server-56</v>
       </c>
       <c r="G168" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H168" t="s">
         <v>250</v>
@@ -25472,14 +25473,14 @@
     </row>
     <row r="169" spans="5:8">
       <c r="E169" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="F169" t="str">
         <f>发送配置!$E$57</f>
         <v>hmsg_template_server-57</v>
       </c>
       <c r="G169" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H169" t="s">
         <v>191</v>
@@ -25487,14 +25488,14 @@
     </row>
     <row r="170" spans="5:8">
       <c r="E170" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="F170" t="str">
         <f>发送配置!$E$58</f>
         <v>hmsg_template_server-58</v>
       </c>
       <c r="G170" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H170" t="s">
         <v>211</v>
@@ -25502,14 +25503,14 @@
     </row>
     <row r="171" spans="5:8">
       <c r="E171" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="F171" t="str">
         <f>发送配置!$E$59</f>
         <v>hmsg_template_server-59</v>
       </c>
       <c r="G171" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H171" t="s">
         <v>142</v>
@@ -25517,14 +25518,14 @@
     </row>
     <row r="172" spans="5:8">
       <c r="E172" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F172" t="str">
         <f>发送配置!$E$60</f>
         <v>hmsg_template_server-60</v>
       </c>
       <c r="G172" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H172" t="s">
         <v>146</v>
@@ -25532,14 +25533,14 @@
     </row>
     <row r="173" spans="5:8">
       <c r="E173" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F173" t="str">
         <f>发送配置!$E$61</f>
         <v>hmsg_template_server-61</v>
       </c>
       <c r="G173" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H173" t="s">
         <v>149</v>
@@ -25547,14 +25548,14 @@
     </row>
     <row r="174" spans="5:8">
       <c r="E174" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="F174" t="str">
         <f>发送配置!$E$62</f>
         <v>hmsg_template_server-62</v>
       </c>
       <c r="G174" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H174" t="s">
         <v>154</v>
@@ -25562,14 +25563,14 @@
     </row>
     <row r="175" spans="5:8">
       <c r="E175" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="F175" t="str">
         <f>发送配置!$E$63</f>
         <v>hmsg_template_server-63</v>
       </c>
       <c r="G175" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H175" t="s">
         <v>188</v>
@@ -25577,14 +25578,14 @@
     </row>
     <row r="176" spans="5:8">
       <c r="E176" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="F176" t="str">
         <f>发送配置!$E$64</f>
         <v>hmsg_template_server-64</v>
       </c>
       <c r="G176" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H176" t="s">
         <v>162</v>
@@ -25592,14 +25593,14 @@
     </row>
     <row r="177" spans="5:8">
       <c r="E177" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="F177" t="str">
         <f>发送配置!$E$65</f>
         <v>hmsg_template_server-65</v>
       </c>
       <c r="G177" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H177" t="s">
         <v>133</v>
@@ -25607,14 +25608,14 @@
     </row>
     <row r="178" spans="5:8">
       <c r="E178" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="F178" t="str">
         <f>发送配置!$E$66</f>
         <v>hmsg_template_server-66</v>
       </c>
       <c r="G178" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H178" t="s">
         <v>194</v>
@@ -25622,14 +25623,14 @@
     </row>
     <row r="179" spans="5:8">
       <c r="E179" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="F179" t="str">
         <f>发送配置!$E$68</f>
         <v>hmsg_template_server-68</v>
       </c>
       <c r="G179" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H179" t="s">
         <v>167</v>
@@ -25637,14 +25638,14 @@
     </row>
     <row r="180" spans="5:8">
       <c r="E180" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="F180" t="str">
         <f>发送配置!$E$69</f>
         <v>hmsg_template_server-69</v>
       </c>
       <c r="G180" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H180" t="s">
         <v>505</v>
@@ -25652,14 +25653,14 @@
     </row>
     <row r="181" spans="5:8">
       <c r="E181" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="F181" t="str">
         <f>发送配置!$E$70</f>
         <v>hmsg_template_server-70</v>
       </c>
       <c r="G181" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H181" t="s">
         <v>96</v>
@@ -25667,14 +25668,14 @@
     </row>
     <row r="182" spans="5:8">
       <c r="E182" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="F182" t="str">
         <f>发送配置!$E$71</f>
         <v>hmsg_template_server-71</v>
       </c>
       <c r="G182" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H182" t="s">
         <v>576</v>
@@ -25682,14 +25683,14 @@
     </row>
     <row r="183" spans="5:8">
       <c r="E183" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="F183" t="str">
         <f>发送配置!$E$72</f>
         <v>hmsg_template_server-72</v>
       </c>
       <c r="G183" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H183" t="s">
         <v>138</v>
@@ -25697,14 +25698,14 @@
     </row>
     <row r="184" spans="5:8">
       <c r="E184" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="F184" t="str">
         <f>发送配置!$E$73</f>
         <v>hmsg_template_server-73</v>
       </c>
       <c r="G184" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H184" t="s">
         <v>584</v>
@@ -25712,14 +25713,14 @@
     </row>
     <row r="185" spans="5:8">
       <c r="E185" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="F185" t="str">
         <f>发送配置!$E$74</f>
         <v>hmsg_template_server-74</v>
       </c>
       <c r="G185" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H185" t="s">
         <v>67</v>
@@ -25727,14 +25728,14 @@
     </row>
     <row r="186" spans="5:8">
       <c r="E186" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="F186" t="str">
         <f>发送配置!$E$75</f>
         <v>hmsg_template_server-75</v>
       </c>
       <c r="G186" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H186" t="s">
         <v>185</v>
@@ -25742,14 +25743,14 @@
     </row>
     <row r="187" spans="5:8">
       <c r="E187" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F187" t="str">
         <f>发送配置!$E$76</f>
         <v>hmsg_template_server-76</v>
       </c>
       <c r="G187" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H187" t="s">
         <v>547</v>
@@ -25757,14 +25758,14 @@
     </row>
     <row r="188" spans="5:8">
       <c r="E188" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="F188" t="str">
         <f>发送配置!$E$81</f>
         <v>hmsg_template_server-81</v>
       </c>
       <c r="G188" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H188" t="s">
         <v>320</v>
@@ -25772,14 +25773,14 @@
     </row>
     <row r="189" spans="5:8">
       <c r="E189" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="F189" t="str">
         <f>发送配置!$E$67</f>
         <v>hmsg_template_server-67</v>
       </c>
       <c r="G189" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H189" t="s">
         <v>555</v>
@@ -25788,5 +25789,6 @@
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>